--- a/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hyper_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hyper_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>chr</t>
   </si>
@@ -63,49 +63,79 @@
     <t>ensembl</t>
   </si>
   <si>
+    <t>chr5</t>
+  </si>
+  <si>
     <t>chr16</t>
   </si>
   <si>
+    <t>chr8</t>
+  </si>
+  <si>
     <t>chr11</t>
   </si>
   <si>
+    <t>chr2</t>
+  </si>
+  <si>
     <t>chr10</t>
   </si>
   <si>
+    <t>NSUN2</t>
+  </si>
+  <si>
     <t>DHODH</t>
   </si>
   <si>
     <t>CCP110</t>
   </si>
   <si>
+    <t>SQLE</t>
+  </si>
+  <si>
     <t>DDX6</t>
   </si>
   <si>
+    <t>ZNF514</t>
+  </si>
+  <si>
     <t>PPRC1</t>
   </si>
   <si>
     <t>RBM14-RBM4</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>ENSG00000037474.15</t>
+  </si>
+  <si>
     <t>ENSG00000102967.12</t>
   </si>
   <si>
     <t>ENSG00000103540.16</t>
   </si>
   <si>
+    <t>ENSG00000104549.12</t>
+  </si>
+  <si>
     <t>ENSG00000110367.13</t>
+  </si>
+  <si>
+    <t>ENSG00000144026.12</t>
   </si>
   <si>
     <t>ENSG00000148840.11</t>
@@ -583,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,25 +671,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>72024677</v>
+        <v>6599735</v>
       </c>
       <c r="C2">
-        <v>72024726</v>
+        <v>6599784</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>72024677</v>
+        <v>6599735</v>
       </c>
       <c r="H2">
-        <v>72024726</v>
+        <v>6599784</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -668,19 +698,19 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M2">
-        <v>4.976733747010059</v>
+        <v>1.02813021362969</v>
       </c>
       <c r="N2">
-        <v>6.322832872007739E-05</v>
+        <v>8.985914964909631E-05</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -688,25 +718,25 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>19536144</v>
+        <v>6600082</v>
       </c>
       <c r="C3">
-        <v>19536193</v>
+        <v>6600131</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>19536144</v>
+        <v>6600082</v>
       </c>
       <c r="H3">
-        <v>19536193</v>
+        <v>6600131</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -715,45 +745,45 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>0.58173359318993</v>
+        <v>0.761200643804962</v>
       </c>
       <c r="N3">
-        <v>0.00116041176688064</v>
+        <v>0.00175656001860025</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>19536244</v>
+        <v>72024677</v>
       </c>
       <c r="C4">
-        <v>19536293</v>
+        <v>72024726</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>19536244</v>
+        <v>72024677</v>
       </c>
       <c r="H4">
-        <v>19536293</v>
+        <v>72024726</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -762,45 +792,45 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>2.05838813249379</v>
+        <v>4.976733747010059</v>
       </c>
       <c r="N4">
-        <v>0.0017412278431489</v>
+        <v>6.322832872007739E-05</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>19536894</v>
+        <v>19536144</v>
       </c>
       <c r="C5">
-        <v>19536943</v>
+        <v>19536193</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>19536894</v>
+        <v>19536144</v>
       </c>
       <c r="H5">
-        <v>19536943</v>
+        <v>19536193</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -809,45 +839,45 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>0.640531717623283</v>
+        <v>0.58173359318993</v>
       </c>
       <c r="N5">
-        <v>0.000680574343068896</v>
+        <v>0.00116041176688064</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>19537094</v>
+        <v>19536244</v>
       </c>
       <c r="C6">
-        <v>19537143</v>
+        <v>19536293</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>19537094</v>
+        <v>19536244</v>
       </c>
       <c r="H6">
-        <v>19537143</v>
+        <v>19536293</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -856,45 +886,45 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>1.24147500872149</v>
+        <v>2.05838813249379</v>
       </c>
       <c r="N6">
-        <v>0.00191099572120657</v>
+        <v>0.0017412278431489</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>19537294</v>
+        <v>19536894</v>
       </c>
       <c r="C7">
-        <v>19537343</v>
+        <v>19536943</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>19537294</v>
+        <v>19536894</v>
       </c>
       <c r="H7">
-        <v>19537343</v>
+        <v>19536943</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -903,19 +933,19 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>1.98365047703831</v>
+        <v>0.640531717623283</v>
       </c>
       <c r="N7">
-        <v>0.000817114865427237</v>
+        <v>0.000680574343068896</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -923,25 +953,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>118785886</v>
+        <v>19537094</v>
       </c>
       <c r="C8">
-        <v>118785935</v>
+        <v>19537143</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>118785886</v>
+        <v>19537094</v>
       </c>
       <c r="H8">
-        <v>118785935</v>
+        <v>19537143</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -950,45 +980,45 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>4.57471097850338</v>
+        <v>1.24147500872149</v>
       </c>
       <c r="N8">
-        <v>0.0031669971077346</v>
+        <v>0.00191099572120657</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>102138652</v>
+        <v>19537294</v>
       </c>
       <c r="C9">
-        <v>102138701</v>
+        <v>19537343</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>102138652</v>
+        <v>19537294</v>
       </c>
       <c r="H9">
-        <v>102138701</v>
+        <v>19537343</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -997,19 +1027,19 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>5.257495372027781</v>
+        <v>1.98365047703831</v>
       </c>
       <c r="N9">
-        <v>0.0009363068938537109</v>
+        <v>0.000817114865427237</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1017,25 +1047,25 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>102139583</v>
+        <v>124999289</v>
       </c>
       <c r="C10">
-        <v>102139632</v>
+        <v>124999338</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>102139583</v>
+        <v>124999289</v>
       </c>
       <c r="H10">
-        <v>102139632</v>
+        <v>124999338</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1044,45 +1074,45 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>0.8772830710841391</v>
+        <v>1.11327799607074</v>
       </c>
       <c r="N10">
-        <v>0.0004716918636989981</v>
+        <v>0.000235344652386726</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>102140083</v>
+        <v>118785886</v>
       </c>
       <c r="C11">
-        <v>102140132</v>
+        <v>118785935</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>102140083</v>
+        <v>118785886</v>
       </c>
       <c r="H11">
-        <v>102140132</v>
+        <v>118785935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1091,45 +1121,45 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>-1.93194344157361</v>
+        <v>4.57471097850338</v>
       </c>
       <c r="N11">
-        <v>2.41411519357193E-05</v>
+        <v>0.0031669971077346</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>66639768</v>
+        <v>95149692</v>
       </c>
       <c r="C12">
-        <v>66639817</v>
+        <v>95149791</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>66639768</v>
+        <v>95149692</v>
       </c>
       <c r="H12">
-        <v>66639817</v>
+        <v>95149791</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1138,19 +1168,254 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12">
+        <v>1.33758088112671</v>
+      </c>
+      <c r="N12">
+        <v>9.21167586352699E-06</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>95159084</v>
+      </c>
+      <c r="C13">
+        <v>95159133</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="M12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>95159084</v>
+      </c>
+      <c r="H13">
+        <v>95159133</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>-4.966335035038651</v>
+      </c>
+      <c r="N13">
+        <v>6.671209667097329E-05</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>102138652</v>
+      </c>
+      <c r="C14">
+        <v>102138701</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>102138652</v>
+      </c>
+      <c r="H14">
+        <v>102138701</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14">
+        <v>5.257495372027781</v>
+      </c>
+      <c r="N14">
+        <v>0.0009363068938537109</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>102139583</v>
+      </c>
+      <c r="C15">
+        <v>102139632</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>102139583</v>
+      </c>
+      <c r="H15">
+        <v>102139632</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>0.8772830710841391</v>
+      </c>
+      <c r="N15">
+        <v>0.0004716918636989981</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>102140083</v>
+      </c>
+      <c r="C16">
+        <v>102140132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>102140083</v>
+      </c>
+      <c r="H16">
+        <v>102140132</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16">
+        <v>-1.93194344157361</v>
+      </c>
+      <c r="N16">
+        <v>2.41411519357193E-05</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>66639768</v>
+      </c>
+      <c r="C17">
+        <v>66639817</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>66639768</v>
+      </c>
+      <c r="H17">
+        <v>66639817</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17">
         <v>5.31811999384422</v>
       </c>
-      <c r="N12">
+      <c r="N17">
         <v>0.000838670442381617</v>
       </c>
-      <c r="O12" t="s">
-        <v>31</v>
+      <c r="O17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1168,82 +1433,82 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1251,294 +1516,501 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.796</v>
+        <v>0.882</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.181</v>
+        <v>0.016</v>
       </c>
       <c r="E2">
-        <v>0.317</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F2">
-        <v>-0.24</v>
+        <v>-0.175</v>
       </c>
       <c r="G2">
-        <v>0.183</v>
+        <v>0.483</v>
       </c>
       <c r="H2">
-        <v>-0.131</v>
+        <v>-0.145</v>
       </c>
       <c r="I2">
-        <v>0.479</v>
+        <v>0.437</v>
       </c>
       <c r="J2">
-        <v>-0.222</v>
+        <v>0.035</v>
       </c>
       <c r="K2">
-        <v>0.429</v>
+        <v>0.886</v>
       </c>
       <c r="L2">
-        <v>0.032</v>
+        <v>0.214</v>
       </c>
       <c r="M2">
-        <v>0.879</v>
+        <v>0.276</v>
+      </c>
+      <c r="N2">
+        <v>0.107</v>
+      </c>
+      <c r="O2">
+        <v>0.513</v>
+      </c>
+      <c r="P2">
+        <v>0.108</v>
+      </c>
+      <c r="Q2">
+        <v>0.255</v>
+      </c>
+      <c r="R2">
+        <v>0.021</v>
+      </c>
+      <c r="S2">
+        <v>0.852</v>
+      </c>
+      <c r="T2">
+        <v>0.057</v>
+      </c>
+      <c r="U2">
+        <v>0.569</v>
+      </c>
+      <c r="V2">
+        <v>0.031</v>
+      </c>
+      <c r="W2">
+        <v>0.799</v>
+      </c>
+      <c r="X2">
+        <v>0.176</v>
+      </c>
+      <c r="Y2">
+        <v>0.11</v>
       </c>
       <c r="Z2">
-        <v>0.06</v>
+        <v>-0.017</v>
       </c>
       <c r="AA2">
-        <v>0.9409999999999999</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>1.238</v>
+        <v>0.349</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="D3">
-        <v>-0.285</v>
+        <v>-0.186</v>
       </c>
       <c r="E3">
-        <v>0.479</v>
+        <v>0.633</v>
       </c>
       <c r="F3">
-        <v>0.172</v>
+        <v>0.323</v>
       </c>
       <c r="G3">
-        <v>0.614</v>
+        <v>0.517</v>
       </c>
       <c r="H3">
-        <v>-0.132</v>
+        <v>-0.062</v>
       </c>
       <c r="I3">
-        <v>0.645</v>
+        <v>0.873</v>
       </c>
       <c r="J3">
-        <v>-0.336</v>
+        <v>0.032</v>
       </c>
       <c r="K3">
-        <v>0.214</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>-0.286</v>
+        <v>-0.22</v>
       </c>
       <c r="M3">
-        <v>0.454</v>
-      </c>
-      <c r="Z3">
-        <v>-0.162</v>
-      </c>
-      <c r="AA3">
-        <v>0.927</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>2.098</v>
+        <v>0.982</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.018</v>
+      </c>
+      <c r="E4">
+        <v>0.906</v>
+      </c>
+      <c r="F4">
+        <v>0.392</v>
+      </c>
+      <c r="G4">
+        <v>0.114</v>
+      </c>
+      <c r="H4">
         <v>0.006</v>
       </c>
-      <c r="D4">
-        <v>-0.018</v>
-      </c>
-      <c r="E4">
-        <v>0.987</v>
-      </c>
-      <c r="F4">
-        <v>-0.487</v>
-      </c>
-      <c r="G4">
-        <v>0.773</v>
-      </c>
-      <c r="H4">
-        <v>-0.215</v>
-      </c>
       <c r="I4">
-        <v>0.884</v>
+        <v>0.97</v>
       </c>
       <c r="J4">
-        <v>0.215</v>
+        <v>0.104</v>
       </c>
       <c r="K4">
-        <v>0.851</v>
+        <v>0.598</v>
       </c>
       <c r="L4">
-        <v>-0.419</v>
+        <v>-0.089</v>
       </c>
       <c r="M4">
-        <v>0.717</v>
+        <v>0.658</v>
       </c>
       <c r="N4">
-        <v>-0.006</v>
+        <v>-0.327</v>
       </c>
       <c r="O4">
-        <v>0.966</v>
+        <v>0.032</v>
       </c>
       <c r="P4">
-        <v>-0.058</v>
+        <v>-0.025</v>
       </c>
       <c r="Q4">
-        <v>0.577</v>
+        <v>0.771</v>
       </c>
       <c r="R4">
-        <v>0.036</v>
+        <v>-0.005</v>
       </c>
       <c r="S4">
-        <v>0.833</v>
+        <v>0.97</v>
       </c>
       <c r="T4">
-        <v>0.165</v>
+        <v>0.283</v>
       </c>
       <c r="U4">
-        <v>0.318</v>
+        <v>0.038</v>
       </c>
       <c r="V4">
-        <v>-0.04</v>
+        <v>-0.066</v>
       </c>
       <c r="W4">
-        <v>0.731</v>
+        <v>0.751</v>
       </c>
       <c r="X4">
-        <v>-0.079</v>
+        <v>-0.062</v>
       </c>
       <c r="Y4">
-        <v>0.438</v>
+        <v>0.485</v>
+      </c>
+      <c r="Z4">
+        <v>0.143</v>
+      </c>
+      <c r="AA4">
+        <v>0.804</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>1.123</v>
+        <v>0.263</v>
       </c>
       <c r="C5">
-        <v>0.003</v>
+        <v>0.047</v>
       </c>
       <c r="D5">
-        <v>0.022</v>
+        <v>0.082</v>
       </c>
       <c r="E5">
-        <v>0.874</v>
+        <v>0.57</v>
       </c>
       <c r="F5">
-        <v>-0.218</v>
+        <v>0.244</v>
       </c>
       <c r="G5">
-        <v>0.275</v>
+        <v>0.097</v>
       </c>
       <c r="H5">
-        <v>-0.043</v>
+        <v>0.019</v>
       </c>
       <c r="I5">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="J5">
-        <v>-0.156</v>
+        <v>-0.212</v>
       </c>
       <c r="K5">
-        <v>0.404</v>
+        <v>0.332</v>
       </c>
       <c r="L5">
-        <v>0.04</v>
+        <v>0.082</v>
       </c>
       <c r="M5">
-        <v>0.826</v>
-      </c>
-      <c r="Z5">
-        <v>-0.098</v>
-      </c>
-      <c r="AA5">
-        <v>0.9409999999999999</v>
+        <v>0.669</v>
+      </c>
+      <c r="N5">
+        <v>0.218</v>
+      </c>
+      <c r="O5">
+        <v>0.081</v>
+      </c>
+      <c r="P5">
+        <v>-0.035</v>
+      </c>
+      <c r="Q5">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.283</v>
+      </c>
+      <c r="S5">
+        <v>0.011</v>
+      </c>
+      <c r="T5">
+        <v>0.097</v>
+      </c>
+      <c r="U5">
+        <v>0.452</v>
+      </c>
+      <c r="V5">
+        <v>-0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.192</v>
+      </c>
+      <c r="X5">
+        <v>0.045</v>
+      </c>
+      <c r="Y5">
+        <v>0.615</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0.263</v>
+        <v>1.238</v>
       </c>
       <c r="C6">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.082</v>
+        <v>-0.285</v>
       </c>
       <c r="E6">
-        <v>0.57</v>
+        <v>0.479</v>
       </c>
       <c r="F6">
-        <v>0.244</v>
+        <v>0.172</v>
       </c>
       <c r="G6">
-        <v>0.097</v>
+        <v>0.614</v>
       </c>
       <c r="H6">
-        <v>0.019</v>
+        <v>-0.132</v>
       </c>
       <c r="I6">
-        <v>0.925</v>
+        <v>0.645</v>
       </c>
       <c r="J6">
-        <v>-0.212</v>
+        <v>-0.336</v>
       </c>
       <c r="K6">
-        <v>0.332</v>
+        <v>0.214</v>
       </c>
       <c r="L6">
-        <v>0.082</v>
+        <v>-0.286</v>
       </c>
       <c r="M6">
-        <v>0.669</v>
-      </c>
-      <c r="N6">
-        <v>0.218</v>
-      </c>
-      <c r="O6">
-        <v>0.081</v>
-      </c>
-      <c r="P6">
-        <v>-0.035</v>
-      </c>
-      <c r="Q6">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="R6">
-        <v>0.283</v>
-      </c>
-      <c r="S6">
-        <v>0.011</v>
-      </c>
-      <c r="T6">
-        <v>0.097</v>
-      </c>
-      <c r="U6">
-        <v>0.452</v>
-      </c>
-      <c r="V6">
-        <v>-0.17</v>
-      </c>
-      <c r="W6">
-        <v>0.192</v>
-      </c>
-      <c r="X6">
-        <v>0.045</v>
-      </c>
-      <c r="Y6">
-        <v>0.615</v>
+        <v>0.454</v>
+      </c>
+      <c r="Z6">
+        <v>-0.162</v>
+      </c>
+      <c r="AA6">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2.098</v>
+      </c>
+      <c r="C7">
+        <v>0.006</v>
+      </c>
+      <c r="D7">
+        <v>-0.018</v>
+      </c>
+      <c r="E7">
+        <v>0.987</v>
+      </c>
+      <c r="F7">
+        <v>-0.487</v>
+      </c>
+      <c r="G7">
+        <v>0.773</v>
+      </c>
+      <c r="H7">
+        <v>-0.215</v>
+      </c>
+      <c r="I7">
+        <v>0.884</v>
+      </c>
+      <c r="J7">
+        <v>0.215</v>
+      </c>
+      <c r="K7">
+        <v>0.851</v>
+      </c>
+      <c r="L7">
+        <v>-0.419</v>
+      </c>
+      <c r="M7">
+        <v>0.717</v>
+      </c>
+      <c r="N7">
+        <v>-0.006</v>
+      </c>
+      <c r="O7">
+        <v>0.966</v>
+      </c>
+      <c r="P7">
+        <v>-0.058</v>
+      </c>
+      <c r="Q7">
+        <v>0.577</v>
+      </c>
+      <c r="R7">
+        <v>0.036</v>
+      </c>
+      <c r="S7">
+        <v>0.833</v>
+      </c>
+      <c r="T7">
+        <v>0.165</v>
+      </c>
+      <c r="U7">
+        <v>0.318</v>
+      </c>
+      <c r="V7">
+        <v>-0.04</v>
+      </c>
+      <c r="W7">
+        <v>0.731</v>
+      </c>
+      <c r="X7">
+        <v>-0.079</v>
+      </c>
+      <c r="Y7">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1.123</v>
+      </c>
+      <c r="C8">
+        <v>0.003</v>
+      </c>
+      <c r="D8">
+        <v>0.022</v>
+      </c>
+      <c r="E8">
+        <v>0.874</v>
+      </c>
+      <c r="F8">
+        <v>-0.218</v>
+      </c>
+      <c r="G8">
+        <v>0.275</v>
+      </c>
+      <c r="H8">
+        <v>-0.043</v>
+      </c>
+      <c r="I8">
+        <v>0.86</v>
+      </c>
+      <c r="J8">
+        <v>-0.156</v>
+      </c>
+      <c r="K8">
+        <v>0.404</v>
+      </c>
+      <c r="L8">
+        <v>0.04</v>
+      </c>
+      <c r="M8">
+        <v>0.826</v>
+      </c>
+      <c r="Z8">
+        <v>-0.098</v>
+      </c>
+      <c r="AA8">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.796</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.181</v>
+      </c>
+      <c r="E9">
+        <v>0.317</v>
+      </c>
+      <c r="F9">
+        <v>-0.24</v>
+      </c>
+      <c r="G9">
+        <v>0.183</v>
+      </c>
+      <c r="H9">
+        <v>-0.131</v>
+      </c>
+      <c r="I9">
+        <v>0.479</v>
+      </c>
+      <c r="J9">
+        <v>-0.222</v>
+      </c>
+      <c r="K9">
+        <v>0.429</v>
+      </c>
+      <c r="L9">
+        <v>0.032</v>
+      </c>
+      <c r="M9">
+        <v>0.879</v>
+      </c>
+      <c r="Z9">
+        <v>0.06</v>
+      </c>
+      <c r="AA9">
+        <v>0.9409999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +2020,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1559,40 +2031,40 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1600,204 +2072,327 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>-0.222</v>
+        <v>-0.187</v>
       </c>
       <c r="C2">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="D2">
-        <v>-0.159</v>
+        <v>-0.296</v>
       </c>
       <c r="E2">
-        <v>0.059</v>
+        <v>0.091</v>
       </c>
       <c r="F2">
-        <v>-0.115</v>
+        <v>-0.306</v>
       </c>
       <c r="G2">
-        <v>0.213</v>
+        <v>0.167</v>
       </c>
       <c r="H2">
-        <v>-0.012</v>
+        <v>0.038</v>
       </c>
       <c r="I2">
-        <v>0.655</v>
+        <v>0.229</v>
       </c>
       <c r="J2">
-        <v>-0.026</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K2">
-        <v>0.989</v>
+        <v>0.742</v>
       </c>
       <c r="L2">
-        <v>-0.026</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M2">
-        <v>0.989</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>-0.141</v>
+        <v>-0.111</v>
       </c>
       <c r="C3">
-        <v>0.045</v>
+        <v>0.021</v>
       </c>
       <c r="D3">
-        <v>-0.132</v>
+        <v>-0.198</v>
       </c>
       <c r="E3">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F3">
-        <v>-0.039</v>
+        <v>-0.348</v>
       </c>
       <c r="G3">
-        <v>0.612</v>
+        <v>0.247</v>
       </c>
       <c r="H3">
-        <v>-0.268</v>
+        <v>0.039</v>
       </c>
       <c r="I3">
-        <v>0.277</v>
+        <v>0.454</v>
       </c>
       <c r="J3">
-        <v>-0.4</v>
+        <v>0.126</v>
       </c>
       <c r="K3">
-        <v>0.034</v>
+        <v>0.196</v>
       </c>
       <c r="L3">
-        <v>-0.4</v>
+        <v>0.126</v>
       </c>
       <c r="M3">
-        <v>0.034</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>-0.524</v>
+        <v>-0.283</v>
       </c>
       <c r="C4">
         <v>0.001</v>
       </c>
       <c r="D4">
-        <v>-0.255</v>
+        <v>-0.343</v>
       </c>
       <c r="E4">
-        <v>0.063</v>
+        <v>0.001</v>
       </c>
       <c r="F4">
-        <v>-0.337</v>
+        <v>-0.365</v>
       </c>
       <c r="G4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H4">
-        <v>-0.08699999999999999</v>
+        <v>-0.028</v>
       </c>
       <c r="I4">
-        <v>0.002</v>
+        <v>0.064</v>
       </c>
       <c r="J4">
-        <v>-0.203</v>
+        <v>0.028</v>
       </c>
       <c r="K4">
-        <v>0.037</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L4">
-        <v>-0.203</v>
+        <v>0.028</v>
       </c>
       <c r="M4">
-        <v>0.037</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>-0.159</v>
+        <v>-0.149</v>
       </c>
       <c r="C5">
-        <v>0.038</v>
+        <v>0.112</v>
       </c>
       <c r="D5">
-        <v>-0.152</v>
+        <v>-0.173</v>
       </c>
       <c r="E5">
-        <v>0.522</v>
+        <v>0.007</v>
       </c>
       <c r="F5">
-        <v>-0.145</v>
+        <v>-0.302</v>
       </c>
       <c r="G5">
-        <v>0.8129999999999999</v>
+        <v>0.053</v>
       </c>
       <c r="H5">
-        <v>-0.089</v>
+        <v>-0.253</v>
       </c>
       <c r="I5">
-        <v>0.031</v>
+        <v>0.004</v>
       </c>
       <c r="J5">
-        <v>0.07099999999999999</v>
+        <v>-0.272</v>
       </c>
       <c r="K5">
-        <v>0.623</v>
+        <v>0.062</v>
       </c>
       <c r="L5">
-        <v>0.07099999999999999</v>
+        <v>-0.272</v>
       </c>
       <c r="M5">
-        <v>0.623</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>-0.149</v>
+        <v>-0.141</v>
       </c>
       <c r="C6">
-        <v>0.112</v>
+        <v>0.045</v>
       </c>
       <c r="D6">
-        <v>-0.173</v>
+        <v>-0.132</v>
       </c>
       <c r="E6">
-        <v>0.007</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F6">
-        <v>-0.302</v>
+        <v>-0.039</v>
       </c>
       <c r="G6">
-        <v>0.053</v>
+        <v>0.612</v>
       </c>
       <c r="H6">
-        <v>-0.253</v>
+        <v>-0.268</v>
       </c>
       <c r="I6">
-        <v>0.004</v>
+        <v>0.277</v>
       </c>
       <c r="J6">
-        <v>-0.272</v>
+        <v>-0.4</v>
       </c>
       <c r="K6">
-        <v>0.062</v>
+        <v>0.034</v>
       </c>
       <c r="L6">
-        <v>-0.272</v>
+        <v>-0.4</v>
       </c>
       <c r="M6">
-        <v>0.062</v>
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>-0.524</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-0.255</v>
+      </c>
+      <c r="E7">
+        <v>0.063</v>
+      </c>
+      <c r="F7">
+        <v>-0.337</v>
+      </c>
+      <c r="G7">
+        <v>0.002</v>
+      </c>
+      <c r="H7">
+        <v>-0.08699999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.002</v>
+      </c>
+      <c r="J7">
+        <v>-0.203</v>
+      </c>
+      <c r="K7">
+        <v>0.037</v>
+      </c>
+      <c r="L7">
+        <v>-0.203</v>
+      </c>
+      <c r="M7">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>-0.159</v>
+      </c>
+      <c r="C8">
+        <v>0.038</v>
+      </c>
+      <c r="D8">
+        <v>-0.152</v>
+      </c>
+      <c r="E8">
+        <v>0.522</v>
+      </c>
+      <c r="F8">
+        <v>-0.145</v>
+      </c>
+      <c r="G8">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="H8">
+        <v>-0.089</v>
+      </c>
+      <c r="I8">
+        <v>0.031</v>
+      </c>
+      <c r="J8">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.623</v>
+      </c>
+      <c r="L8">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>-0.222</v>
+      </c>
+      <c r="C9">
+        <v>0.17</v>
+      </c>
+      <c r="D9">
+        <v>-0.159</v>
+      </c>
+      <c r="E9">
+        <v>0.059</v>
+      </c>
+      <c r="F9">
+        <v>-0.115</v>
+      </c>
+      <c r="G9">
+        <v>0.213</v>
+      </c>
+      <c r="H9">
+        <v>-0.012</v>
+      </c>
+      <c r="I9">
+        <v>0.655</v>
+      </c>
+      <c r="J9">
+        <v>-0.026</v>
+      </c>
+      <c r="K9">
+        <v>0.989</v>
+      </c>
+      <c r="L9">
+        <v>-0.026</v>
+      </c>
+      <c r="M9">
+        <v>0.989</v>
       </c>
     </row>
   </sheetData>

--- a/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hyper_m6A.xlsx
+++ b/combined_analysis/intersectional-genes/Rho_down & Exp_up & Hyper_m6A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
   <si>
     <t>chr</t>
   </si>
@@ -81,6 +81,9 @@
     <t>chr10</t>
   </si>
   <si>
+    <t>chr1</t>
+  </si>
+  <si>
     <t>NSUN2</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t>PPRC1</t>
   </si>
   <si>
+    <t>MTF1</t>
+  </si>
+  <si>
     <t>RBM14-RBM4</t>
   </si>
   <si>
@@ -117,9 +123,15 @@
     <t>99</t>
   </si>
   <si>
+    <t>36,14</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>0,814</t>
+  </si>
+  <si>
     <t>ENSG00000037474.15</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t>ENSG00000148840.11</t>
   </si>
   <si>
+    <t>ENSG00000188786.10</t>
+  </si>
+  <si>
     <t>ENSG00000248643.5</t>
   </si>
   <si>
@@ -178,42 +193,6 @@
   </si>
   <si>
     <t>Exp.thp1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.hl60.pval</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.kg1.pval</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.molm14.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml2.pval</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.ociaml3.pval</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.logFC</t>
-  </si>
-  <si>
-    <t>Stbl.thp1.pval</t>
   </si>
   <si>
     <t>TE.Estimate_treatmentDRUG</t>
@@ -613,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,13 +656,13 @@
         <v>6599784</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>6599735</v>
@@ -698,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M2">
         <v>1.02813021362969</v>
@@ -710,7 +689,7 @@
         <v>8.985914964909631E-05</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -724,13 +703,13 @@
         <v>6600131</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>6600082</v>
@@ -745,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3">
         <v>0.761200643804962</v>
@@ -757,7 +736,7 @@
         <v>0.00175656001860025</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -771,13 +750,13 @@
         <v>72024726</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>72024677</v>
@@ -792,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M4">
         <v>4.976733747010059</v>
@@ -804,7 +783,7 @@
         <v>6.322832872007739E-05</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -818,13 +797,13 @@
         <v>19536193</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>19536144</v>
@@ -839,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>0.58173359318993</v>
@@ -851,7 +830,7 @@
         <v>0.00116041176688064</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -865,13 +844,13 @@
         <v>19536293</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>19536244</v>
@@ -886,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>2.05838813249379</v>
@@ -898,7 +877,7 @@
         <v>0.0017412278431489</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -912,13 +891,13 @@
         <v>19536943</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>19536894</v>
@@ -933,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M7">
         <v>0.640531717623283</v>
@@ -945,7 +924,7 @@
         <v>0.000680574343068896</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -959,13 +938,13 @@
         <v>19537143</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>19537094</v>
@@ -980,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M8">
         <v>1.24147500872149</v>
@@ -992,7 +971,7 @@
         <v>0.00191099572120657</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1006,13 +985,13 @@
         <v>19537343</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>19537294</v>
@@ -1027,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M9">
         <v>1.98365047703831</v>
@@ -1039,7 +1018,7 @@
         <v>0.000817114865427237</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1053,13 +1032,13 @@
         <v>124999338</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>124999289</v>
@@ -1074,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M10">
         <v>1.11327799607074</v>
@@ -1086,7 +1065,7 @@
         <v>0.000235344652386726</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1100,13 +1079,13 @@
         <v>118785935</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>118785886</v>
@@ -1121,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M11">
         <v>4.57471097850338</v>
@@ -1133,7 +1112,7 @@
         <v>0.0031669971077346</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1147,13 +1126,13 @@
         <v>95149791</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>95149692</v>
@@ -1168,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M12">
         <v>1.33758088112671</v>
@@ -1180,7 +1159,7 @@
         <v>9.21167586352699E-06</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1194,13 +1173,13 @@
         <v>95159133</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>95159084</v>
@@ -1215,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M13">
         <v>-4.966335035038651</v>
@@ -1227,7 +1206,7 @@
         <v>6.671209667097329E-05</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1241,13 +1220,13 @@
         <v>102138701</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>102138652</v>
@@ -1262,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M14">
         <v>5.257495372027781</v>
@@ -1274,7 +1253,7 @@
         <v>0.0009363068938537109</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1288,13 +1267,13 @@
         <v>102139632</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>102139583</v>
@@ -1309,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M15">
         <v>0.8772830710841391</v>
@@ -1321,7 +1300,7 @@
         <v>0.0004716918636989981</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1335,13 +1314,13 @@
         <v>102140132</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>102140083</v>
@@ -1356,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M16">
         <v>-1.93194344157361</v>
@@ -1368,33 +1347,33 @@
         <v>2.41411519357193E-05</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>66639768</v>
+        <v>37822305</v>
       </c>
       <c r="C17">
-        <v>66639817</v>
+        <v>37822354</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
-        <v>66639768</v>
+        <v>37822305</v>
       </c>
       <c r="H17">
-        <v>66639817</v>
+        <v>37822354</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1403,19 +1382,113 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <v>5.45532111534834</v>
+      </c>
+      <c r="N17">
+        <v>9.373188899486349E-07</v>
+      </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>37857674</v>
+      </c>
+      <c r="C18">
+        <v>37858501</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
       </c>
-      <c r="L17" t="s">
+      <c r="G18">
+        <v>37857674</v>
+      </c>
+      <c r="H18">
+        <v>37858501</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18">
+        <v>-1.74296930505857</v>
+      </c>
+      <c r="N18">
+        <v>0.000485927010331788</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>66639768</v>
+      </c>
+      <c r="C19">
+        <v>66639817</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>66639768</v>
+      </c>
+      <c r="H19">
+        <v>66639817</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="M17">
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
         <v>5.31811999384422</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <v>0.000838670442381617</v>
       </c>
-      <c r="O17" t="s">
-        <v>41</v>
+      <c r="O19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1425,592 +1498,459 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>0.882</v>
+        <v>0.263</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D2">
+        <v>0.082</v>
+      </c>
+      <c r="E2">
+        <v>0.57</v>
+      </c>
+      <c r="F2">
+        <v>0.244</v>
+      </c>
+      <c r="G2">
+        <v>0.097</v>
+      </c>
+      <c r="H2">
+        <v>0.019</v>
+      </c>
+      <c r="I2">
+        <v>0.925</v>
+      </c>
+      <c r="J2">
+        <v>-0.212</v>
+      </c>
+      <c r="K2">
+        <v>0.332</v>
+      </c>
+      <c r="L2">
+        <v>0.082</v>
+      </c>
+      <c r="M2">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-0.181</v>
+      </c>
+      <c r="E3">
+        <v>0.317</v>
+      </c>
+      <c r="F3">
+        <v>-0.24</v>
+      </c>
+      <c r="G3">
+        <v>0.183</v>
+      </c>
+      <c r="H3">
+        <v>-0.131</v>
+      </c>
+      <c r="I3">
+        <v>0.479</v>
+      </c>
+      <c r="J3">
+        <v>-0.222</v>
+      </c>
+      <c r="K3">
+        <v>0.429</v>
+      </c>
+      <c r="L3">
+        <v>0.032</v>
+      </c>
+      <c r="M3">
+        <v>0.879</v>
+      </c>
+      <c r="N3">
+        <v>0.06</v>
+      </c>
+      <c r="O3">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0.349</v>
+      </c>
+      <c r="C4">
+        <v>0.003</v>
+      </c>
+      <c r="D4">
+        <v>-0.186</v>
+      </c>
+      <c r="E4">
+        <v>0.633</v>
+      </c>
+      <c r="F4">
+        <v>0.323</v>
+      </c>
+      <c r="G4">
+        <v>0.517</v>
+      </c>
+      <c r="H4">
+        <v>-0.062</v>
+      </c>
+      <c r="I4">
+        <v>0.873</v>
+      </c>
+      <c r="J4">
+        <v>0.032</v>
+      </c>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>-0.22</v>
+      </c>
+      <c r="M4">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.299</v>
+      </c>
+      <c r="C5">
+        <v>0.003</v>
+      </c>
+      <c r="D5">
+        <v>0.022</v>
+      </c>
+      <c r="E5">
+        <v>0.874</v>
+      </c>
+      <c r="F5">
+        <v>-0.218</v>
+      </c>
+      <c r="G5">
+        <v>0.275</v>
+      </c>
+      <c r="H5">
+        <v>-0.043</v>
+      </c>
+      <c r="I5">
+        <v>0.86</v>
+      </c>
+      <c r="J5">
+        <v>-0.156</v>
+      </c>
+      <c r="K5">
+        <v>0.404</v>
+      </c>
+      <c r="L5">
+        <v>0.04</v>
+      </c>
+      <c r="M5">
+        <v>0.826</v>
+      </c>
+      <c r="N5">
+        <v>-0.098</v>
+      </c>
+      <c r="O5">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.754</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.018</v>
+      </c>
+      <c r="E6">
+        <v>0.906</v>
+      </c>
+      <c r="F6">
+        <v>0.392</v>
+      </c>
+      <c r="G6">
+        <v>0.114</v>
+      </c>
+      <c r="H6">
+        <v>0.006</v>
+      </c>
+      <c r="I6">
+        <v>0.97</v>
+      </c>
+      <c r="J6">
+        <v>0.104</v>
+      </c>
+      <c r="K6">
+        <v>0.598</v>
+      </c>
+      <c r="L6">
+        <v>-0.089</v>
+      </c>
+      <c r="M6">
+        <v>0.658</v>
+      </c>
+      <c r="N6">
+        <v>0.143</v>
+      </c>
+      <c r="O6">
+        <v>0.804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.792</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0.016</v>
       </c>
-      <c r="E2">
+      <c r="E7">
         <v>0.9370000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F7">
         <v>-0.175</v>
       </c>
-      <c r="G2">
+      <c r="G7">
         <v>0.483</v>
       </c>
-      <c r="H2">
+      <c r="H7">
         <v>-0.145</v>
       </c>
-      <c r="I2">
+      <c r="I7">
         <v>0.437</v>
       </c>
-      <c r="J2">
+      <c r="J7">
         <v>0.035</v>
       </c>
-      <c r="K2">
+      <c r="K7">
         <v>0.886</v>
       </c>
-      <c r="L2">
+      <c r="L7">
         <v>0.214</v>
       </c>
-      <c r="M2">
+      <c r="M7">
         <v>0.276</v>
       </c>
-      <c r="N2">
-        <v>0.107</v>
-      </c>
-      <c r="O2">
-        <v>0.513</v>
-      </c>
-      <c r="P2">
-        <v>0.108</v>
-      </c>
-      <c r="Q2">
-        <v>0.255</v>
-      </c>
-      <c r="R2">
-        <v>0.021</v>
-      </c>
-      <c r="S2">
-        <v>0.852</v>
-      </c>
-      <c r="T2">
-        <v>0.057</v>
-      </c>
-      <c r="U2">
-        <v>0.569</v>
-      </c>
-      <c r="V2">
-        <v>0.031</v>
-      </c>
-      <c r="W2">
-        <v>0.799</v>
-      </c>
-      <c r="X2">
-        <v>0.176</v>
-      </c>
-      <c r="Y2">
-        <v>0.11</v>
-      </c>
-      <c r="Z2">
+      <c r="N7">
         <v>-0.017</v>
       </c>
-      <c r="AA2">
+      <c r="O7">
         <v>0.986</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>0.349</v>
-      </c>
-      <c r="C3">
-        <v>0.003</v>
-      </c>
-      <c r="D3">
-        <v>-0.186</v>
-      </c>
-      <c r="E3">
-        <v>0.633</v>
-      </c>
-      <c r="F3">
-        <v>0.323</v>
-      </c>
-      <c r="G3">
-        <v>0.517</v>
-      </c>
-      <c r="H3">
-        <v>-0.062</v>
-      </c>
-      <c r="I3">
-        <v>0.873</v>
-      </c>
-      <c r="J3">
-        <v>0.032</v>
-      </c>
-      <c r="K3">
-        <v>0.9</v>
-      </c>
-      <c r="L3">
-        <v>-0.22</v>
-      </c>
-      <c r="M3">
-        <v>0.519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>0.982</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.018</v>
-      </c>
-      <c r="E4">
-        <v>0.906</v>
-      </c>
-      <c r="F4">
-        <v>0.392</v>
-      </c>
-      <c r="G4">
-        <v>0.114</v>
-      </c>
-      <c r="H4">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>2.184</v>
+      </c>
+      <c r="C8">
         <v>0.006</v>
       </c>
-      <c r="I4">
-        <v>0.97</v>
-      </c>
-      <c r="J4">
-        <v>0.104</v>
-      </c>
-      <c r="K4">
-        <v>0.598</v>
-      </c>
-      <c r="L4">
-        <v>-0.089</v>
-      </c>
-      <c r="M4">
-        <v>0.658</v>
-      </c>
-      <c r="N4">
-        <v>-0.327</v>
-      </c>
-      <c r="O4">
-        <v>0.032</v>
-      </c>
-      <c r="P4">
-        <v>-0.025</v>
-      </c>
-      <c r="Q4">
-        <v>0.771</v>
-      </c>
-      <c r="R4">
-        <v>-0.005</v>
-      </c>
-      <c r="S4">
-        <v>0.97</v>
-      </c>
-      <c r="T4">
+      <c r="D8">
+        <v>-0.018</v>
+      </c>
+      <c r="E8">
+        <v>0.987</v>
+      </c>
+      <c r="F8">
+        <v>-0.487</v>
+      </c>
+      <c r="G8">
+        <v>0.773</v>
+      </c>
+      <c r="H8">
+        <v>-0.215</v>
+      </c>
+      <c r="I8">
+        <v>0.884</v>
+      </c>
+      <c r="J8">
+        <v>0.215</v>
+      </c>
+      <c r="K8">
+        <v>0.851</v>
+      </c>
+      <c r="L8">
+        <v>-0.419</v>
+      </c>
+      <c r="M8">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0.586</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.285</v>
+      </c>
+      <c r="E9">
+        <v>0.479</v>
+      </c>
+      <c r="F9">
+        <v>0.172</v>
+      </c>
+      <c r="G9">
+        <v>0.614</v>
+      </c>
+      <c r="H9">
+        <v>-0.132</v>
+      </c>
+      <c r="I9">
+        <v>0.645</v>
+      </c>
+      <c r="J9">
+        <v>-0.336</v>
+      </c>
+      <c r="K9">
+        <v>0.214</v>
+      </c>
+      <c r="L9">
+        <v>-0.286</v>
+      </c>
+      <c r="M9">
+        <v>0.454</v>
+      </c>
+      <c r="N9">
+        <v>-0.162</v>
+      </c>
+      <c r="O9">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.016</v>
+      </c>
+      <c r="E10">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F10">
+        <v>-0.447</v>
+      </c>
+      <c r="G10">
+        <v>0.214</v>
+      </c>
+      <c r="H10">
+        <v>0.305</v>
+      </c>
+      <c r="I10">
+        <v>0.204</v>
+      </c>
+      <c r="J10">
+        <v>0.002</v>
+      </c>
+      <c r="K10">
+        <v>0.994</v>
+      </c>
+      <c r="L10">
         <v>0.283</v>
       </c>
-      <c r="U4">
-        <v>0.038</v>
-      </c>
-      <c r="V4">
-        <v>-0.066</v>
-      </c>
-      <c r="W4">
-        <v>0.751</v>
-      </c>
-      <c r="X4">
-        <v>-0.062</v>
-      </c>
-      <c r="Y4">
-        <v>0.485</v>
-      </c>
-      <c r="Z4">
-        <v>0.143</v>
-      </c>
-      <c r="AA4">
-        <v>0.804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>0.263</v>
-      </c>
-      <c r="C5">
-        <v>0.047</v>
-      </c>
-      <c r="D5">
-        <v>0.082</v>
-      </c>
-      <c r="E5">
-        <v>0.57</v>
-      </c>
-      <c r="F5">
-        <v>0.244</v>
-      </c>
-      <c r="G5">
-        <v>0.097</v>
-      </c>
-      <c r="H5">
-        <v>0.019</v>
-      </c>
-      <c r="I5">
-        <v>0.925</v>
-      </c>
-      <c r="J5">
-        <v>-0.212</v>
-      </c>
-      <c r="K5">
-        <v>0.332</v>
-      </c>
-      <c r="L5">
-        <v>0.082</v>
-      </c>
-      <c r="M5">
-        <v>0.669</v>
-      </c>
-      <c r="N5">
-        <v>0.218</v>
-      </c>
-      <c r="O5">
-        <v>0.081</v>
-      </c>
-      <c r="P5">
-        <v>-0.035</v>
-      </c>
-      <c r="Q5">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="R5">
-        <v>0.283</v>
-      </c>
-      <c r="S5">
-        <v>0.011</v>
-      </c>
-      <c r="T5">
-        <v>0.097</v>
-      </c>
-      <c r="U5">
-        <v>0.452</v>
-      </c>
-      <c r="V5">
-        <v>-0.17</v>
-      </c>
-      <c r="W5">
-        <v>0.192</v>
-      </c>
-      <c r="X5">
-        <v>0.045</v>
-      </c>
-      <c r="Y5">
-        <v>0.615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>1.238</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>-0.285</v>
-      </c>
-      <c r="E6">
-        <v>0.479</v>
-      </c>
-      <c r="F6">
-        <v>0.172</v>
-      </c>
-      <c r="G6">
-        <v>0.614</v>
-      </c>
-      <c r="H6">
-        <v>-0.132</v>
-      </c>
-      <c r="I6">
-        <v>0.645</v>
-      </c>
-      <c r="J6">
-        <v>-0.336</v>
-      </c>
-      <c r="K6">
-        <v>0.214</v>
-      </c>
-      <c r="L6">
-        <v>-0.286</v>
-      </c>
-      <c r="M6">
-        <v>0.454</v>
-      </c>
-      <c r="Z6">
-        <v>-0.162</v>
-      </c>
-      <c r="AA6">
-        <v>0.927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>2.098</v>
-      </c>
-      <c r="C7">
-        <v>0.006</v>
-      </c>
-      <c r="D7">
-        <v>-0.018</v>
-      </c>
-      <c r="E7">
-        <v>0.987</v>
-      </c>
-      <c r="F7">
-        <v>-0.487</v>
-      </c>
-      <c r="G7">
-        <v>0.773</v>
-      </c>
-      <c r="H7">
-        <v>-0.215</v>
-      </c>
-      <c r="I7">
-        <v>0.884</v>
-      </c>
-      <c r="J7">
-        <v>0.215</v>
-      </c>
-      <c r="K7">
-        <v>0.851</v>
-      </c>
-      <c r="L7">
-        <v>-0.419</v>
-      </c>
-      <c r="M7">
-        <v>0.717</v>
-      </c>
-      <c r="N7">
-        <v>-0.006</v>
-      </c>
-      <c r="O7">
-        <v>0.966</v>
-      </c>
-      <c r="P7">
-        <v>-0.058</v>
-      </c>
-      <c r="Q7">
-        <v>0.577</v>
-      </c>
-      <c r="R7">
-        <v>0.036</v>
-      </c>
-      <c r="S7">
-        <v>0.833</v>
-      </c>
-      <c r="T7">
-        <v>0.165</v>
-      </c>
-      <c r="U7">
-        <v>0.318</v>
-      </c>
-      <c r="V7">
-        <v>-0.04</v>
-      </c>
-      <c r="W7">
-        <v>0.731</v>
-      </c>
-      <c r="X7">
-        <v>-0.079</v>
-      </c>
-      <c r="Y7">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1.123</v>
-      </c>
-      <c r="C8">
-        <v>0.003</v>
-      </c>
-      <c r="D8">
-        <v>0.022</v>
-      </c>
-      <c r="E8">
-        <v>0.874</v>
-      </c>
-      <c r="F8">
-        <v>-0.218</v>
-      </c>
-      <c r="G8">
-        <v>0.275</v>
-      </c>
-      <c r="H8">
-        <v>-0.043</v>
-      </c>
-      <c r="I8">
-        <v>0.86</v>
-      </c>
-      <c r="J8">
-        <v>-0.156</v>
-      </c>
-      <c r="K8">
-        <v>0.404</v>
-      </c>
-      <c r="L8">
-        <v>0.04</v>
-      </c>
-      <c r="M8">
-        <v>0.826</v>
-      </c>
-      <c r="Z8">
-        <v>-0.098</v>
-      </c>
-      <c r="AA8">
-        <v>0.9409999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>0.796</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-0.181</v>
-      </c>
-      <c r="E9">
-        <v>0.317</v>
-      </c>
-      <c r="F9">
-        <v>-0.24</v>
-      </c>
-      <c r="G9">
-        <v>0.183</v>
-      </c>
-      <c r="H9">
-        <v>-0.131</v>
-      </c>
-      <c r="I9">
-        <v>0.479</v>
-      </c>
-      <c r="J9">
-        <v>-0.222</v>
-      </c>
-      <c r="K9">
-        <v>0.429</v>
-      </c>
-      <c r="L9">
-        <v>0.032</v>
-      </c>
-      <c r="M9">
-        <v>0.879</v>
-      </c>
-      <c r="Z9">
-        <v>0.06</v>
-      </c>
-      <c r="AA9">
-        <v>0.9409999999999999</v>
+      <c r="M10">
+        <v>0.204</v>
+      </c>
+      <c r="N10">
+        <v>0.124</v>
+      </c>
+      <c r="O10">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2031,368 +1971,409 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>-0.187</v>
+        <v>-0.149</v>
       </c>
       <c r="C2">
-        <v>0.28</v>
+        <v>0.112</v>
       </c>
       <c r="D2">
-        <v>-0.296</v>
+        <v>-0.173</v>
       </c>
       <c r="E2">
-        <v>0.091</v>
+        <v>0.007</v>
       </c>
       <c r="F2">
-        <v>-0.306</v>
+        <v>-0.302</v>
       </c>
       <c r="G2">
-        <v>0.167</v>
+        <v>0.053</v>
       </c>
       <c r="H2">
-        <v>0.038</v>
+        <v>-0.253</v>
       </c>
       <c r="I2">
-        <v>0.229</v>
+        <v>0.004</v>
       </c>
       <c r="J2">
-        <v>0.008999999999999999</v>
+        <v>-0.272</v>
       </c>
       <c r="K2">
-        <v>0.742</v>
+        <v>0.062</v>
       </c>
       <c r="L2">
-        <v>0.008999999999999999</v>
+        <v>-0.272</v>
       </c>
       <c r="M2">
-        <v>0.742</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>-0.111</v>
+        <v>-0.222</v>
       </c>
       <c r="C3">
-        <v>0.021</v>
+        <v>0.17</v>
       </c>
       <c r="D3">
-        <v>-0.198</v>
+        <v>-0.159</v>
       </c>
       <c r="E3">
-        <v>0.23</v>
+        <v>0.059</v>
       </c>
       <c r="F3">
-        <v>-0.348</v>
+        <v>-0.115</v>
       </c>
       <c r="G3">
-        <v>0.247</v>
+        <v>0.213</v>
       </c>
       <c r="H3">
-        <v>0.039</v>
+        <v>-0.012</v>
       </c>
       <c r="I3">
-        <v>0.454</v>
+        <v>0.655</v>
       </c>
       <c r="J3">
-        <v>0.126</v>
+        <v>-0.026</v>
       </c>
       <c r="K3">
-        <v>0.196</v>
+        <v>0.989</v>
       </c>
       <c r="L3">
-        <v>0.126</v>
+        <v>-0.026</v>
       </c>
       <c r="M3">
-        <v>0.196</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>-0.283</v>
+        <v>-0.111</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>0.021</v>
       </c>
       <c r="D4">
-        <v>-0.343</v>
+        <v>-0.198</v>
       </c>
       <c r="E4">
-        <v>0.001</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
-        <v>-0.365</v>
+        <v>-0.348</v>
       </c>
       <c r="G4">
-        <v>0.001</v>
+        <v>0.247</v>
       </c>
       <c r="H4">
-        <v>-0.028</v>
+        <v>0.039</v>
       </c>
       <c r="I4">
-        <v>0.064</v>
+        <v>0.454</v>
       </c>
       <c r="J4">
-        <v>0.028</v>
+        <v>0.126</v>
       </c>
       <c r="K4">
-        <v>0.08699999999999999</v>
+        <v>0.196</v>
       </c>
       <c r="L4">
-        <v>0.028</v>
+        <v>0.126</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>-0.149</v>
+        <v>-0.159</v>
       </c>
       <c r="C5">
-        <v>0.112</v>
+        <v>0.038</v>
       </c>
       <c r="D5">
-        <v>-0.173</v>
+        <v>-0.152</v>
       </c>
       <c r="E5">
-        <v>0.007</v>
+        <v>0.522</v>
       </c>
       <c r="F5">
-        <v>-0.302</v>
+        <v>-0.145</v>
       </c>
       <c r="G5">
-        <v>0.053</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H5">
-        <v>-0.253</v>
+        <v>-0.089</v>
       </c>
       <c r="I5">
-        <v>0.004</v>
+        <v>0.031</v>
       </c>
       <c r="J5">
-        <v>-0.272</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K5">
-        <v>0.062</v>
+        <v>0.623</v>
       </c>
       <c r="L5">
-        <v>-0.272</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M5">
-        <v>0.062</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>-0.141</v>
+        <v>-0.283</v>
       </c>
       <c r="C6">
-        <v>0.045</v>
+        <v>0.001</v>
       </c>
       <c r="D6">
-        <v>-0.132</v>
+        <v>-0.343</v>
       </c>
       <c r="E6">
-        <v>0.07000000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="F6">
-        <v>-0.039</v>
+        <v>-0.365</v>
       </c>
       <c r="G6">
-        <v>0.612</v>
+        <v>0.001</v>
       </c>
       <c r="H6">
-        <v>-0.268</v>
+        <v>-0.028</v>
       </c>
       <c r="I6">
-        <v>0.277</v>
+        <v>0.064</v>
       </c>
       <c r="J6">
-        <v>-0.4</v>
+        <v>0.028</v>
       </c>
       <c r="K6">
-        <v>0.034</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L6">
-        <v>-0.4</v>
+        <v>0.028</v>
       </c>
       <c r="M6">
-        <v>0.034</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>-0.524</v>
+        <v>-0.187</v>
       </c>
       <c r="C7">
-        <v>0.001</v>
+        <v>0.28</v>
       </c>
       <c r="D7">
-        <v>-0.255</v>
+        <v>-0.296</v>
       </c>
       <c r="E7">
-        <v>0.063</v>
+        <v>0.091</v>
       </c>
       <c r="F7">
-        <v>-0.337</v>
+        <v>-0.306</v>
       </c>
       <c r="G7">
-        <v>0.002</v>
+        <v>0.167</v>
       </c>
       <c r="H7">
-        <v>-0.08699999999999999</v>
+        <v>0.038</v>
       </c>
       <c r="I7">
-        <v>0.002</v>
+        <v>0.229</v>
       </c>
       <c r="J7">
-        <v>-0.203</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K7">
-        <v>0.037</v>
+        <v>0.742</v>
       </c>
       <c r="L7">
-        <v>-0.203</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M7">
-        <v>0.037</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>-0.159</v>
+        <v>-0.524</v>
       </c>
       <c r="C8">
-        <v>0.038</v>
+        <v>0.001</v>
       </c>
       <c r="D8">
-        <v>-0.152</v>
+        <v>-0.255</v>
       </c>
       <c r="E8">
-        <v>0.522</v>
+        <v>0.063</v>
       </c>
       <c r="F8">
-        <v>-0.145</v>
+        <v>-0.337</v>
       </c>
       <c r="G8">
-        <v>0.8129999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="H8">
-        <v>-0.089</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="I8">
-        <v>0.031</v>
+        <v>0.002</v>
       </c>
       <c r="J8">
-        <v>0.07099999999999999</v>
+        <v>-0.203</v>
       </c>
       <c r="K8">
-        <v>0.623</v>
+        <v>0.037</v>
       </c>
       <c r="L8">
-        <v>0.07099999999999999</v>
+        <v>-0.203</v>
       </c>
       <c r="M8">
-        <v>0.623</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>-0.222</v>
+        <v>-0.141</v>
       </c>
       <c r="C9">
-        <v>0.17</v>
+        <v>0.045</v>
       </c>
       <c r="D9">
-        <v>-0.159</v>
+        <v>-0.132</v>
       </c>
       <c r="E9">
-        <v>0.059</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F9">
-        <v>-0.115</v>
+        <v>-0.039</v>
       </c>
       <c r="G9">
-        <v>0.213</v>
+        <v>0.612</v>
       </c>
       <c r="H9">
-        <v>-0.012</v>
+        <v>-0.268</v>
       </c>
       <c r="I9">
-        <v>0.655</v>
+        <v>0.277</v>
       </c>
       <c r="J9">
-        <v>-0.026</v>
+        <v>-0.4</v>
       </c>
       <c r="K9">
-        <v>0.989</v>
+        <v>0.034</v>
       </c>
       <c r="L9">
-        <v>-0.026</v>
+        <v>-0.4</v>
       </c>
       <c r="M9">
-        <v>0.989</v>
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>-0.297</v>
+      </c>
+      <c r="C10">
+        <v>0.002</v>
+      </c>
+      <c r="D10">
+        <v>-0.262</v>
+      </c>
+      <c r="E10">
+        <v>0.012</v>
+      </c>
+      <c r="F10">
+        <v>-0.254</v>
+      </c>
+      <c r="G10">
+        <v>0.064</v>
+      </c>
+      <c r="H10">
+        <v>-0.147</v>
+      </c>
+      <c r="I10">
+        <v>0.138</v>
+      </c>
+      <c r="J10">
+        <v>-0.134</v>
+      </c>
+      <c r="K10">
+        <v>0.823</v>
+      </c>
+      <c r="L10">
+        <v>-0.134</v>
+      </c>
+      <c r="M10">
+        <v>0.823</v>
       </c>
     </row>
   </sheetData>
